--- a/topic_split/topic_4.xlsx
+++ b/topic_split/topic_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>issue</t>
   </si>
@@ -22,104 +22,224 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[0.00817587 0.09656496 0.0097312  0.55871273 0.00761257 0.0084667
- 0.01264779 0.01017033 0.01093821 0.01133914 0.010357   0.01035874
- 0.01273003 0.0686986  0.01110427 0.01046269 0.00892594 0.01151267
- 0.01066662 0.01193577 0.01061714 0.009966   0.01038949 0.01194033
- 0.01172307]</t>
-  </si>
-  <si>
-    <t>[0.01010694 0.08629127 0.01211619 0.25269837 0.00943849 0.01051305
- 0.01564785 0.01266481 0.01357664 0.01386538 0.01282817 0.01282018
- 0.0158123  0.07376943 0.01382527 0.01282294 0.01105298 0.01434139
- 0.01309473 0.01463515 0.01320617 0.01228651 0.01293044 0.01461874
- 0.01443758]</t>
-  </si>
-  <si>
-    <t>[0.00866156 0.09070023 0.01032614 0.30629761 0.00807693 0.00903665
- 0.01371576 0.01095402 0.01169124 0.01197103 0.01109435 0.01098812
- 0.01378946 0.08475361 0.01201581 0.01105883 0.00952128 0.01248609
- 0.01132985 0.01272146 0.01136178 0.01062212 0.01116069 0.01266559
- 0.01248388]</t>
-  </si>
-  <si>
-    <t>[0.01004303 0.08604667 0.01190546 0.20818488 0.00934026 0.01048417
- 0.01585439 0.0127193  0.01347365 0.01374664 0.01281953 0.01263302
- 0.01591929 0.08122596 0.01397586 0.01270756 0.01103426 0.01455206
- 0.0130177  0.01461801 0.01311109 0.01225402 0.01290704 0.01455568
- 0.0143182 ]</t>
-  </si>
-  <si>
-    <t>[0.01009305 0.08331036 0.0120985  0.22168476 0.00942438 0.01052695
- 0.01577871 0.01272968 0.01359779 0.01384001 0.01286676 0.01280068
- 0.01593959 0.07726327 0.01392621 0.01280028 0.01106831 0.01446165
- 0.01309668 0.01466451 0.01323842 0.01230297 0.01298524 0.01462338
- 0.01445255]</t>
-  </si>
-  <si>
-    <t>[1.61811476e-308 2.35341829e-307 1.90301353e-308 1.00000000e+000
- 1.50008931e-308 1.67391396e-308 2.51513833e-308 2.01250420e-308
- 2.15018485e-308 2.24276199e-308 2.04678032e-308 2.03152855e-308
- 2.51721919e-308 1.49648862e-307 2.20397611e-308 2.06766336e-308
- 1.76734887e-308 2.28917499e-308 2.10916321e-308 2.36533698e-308
- 2.08652395e-308 1.97274545e-308 2.04844734e-308 2.36479033e-308
- 2.30798353e-308]</t>
-  </si>
-  <si>
-    <t>[0.00651909 0.0819172  0.00778464 0.20801843 0.0060879  0.00680412
- 0.01039344 0.00825347 0.00883739 0.00907405 0.00838373 0.00830923
- 0.01044229 0.07883465 0.00905311 0.00837919 0.00717727 0.00939878
- 0.00859274 0.00965556 0.00858028 0.00803549 0.00842549 0.00960308
- 0.00947338]</t>
-  </si>
-  <si>
-    <t>[0.00826403 0.08690408 0.00988567 0.3735137  0.00771067 0.00859116
- 0.01290368 0.01036246 0.01113591 0.01145049 0.01053198 0.01051739
- 0.01299926 0.0707378  0.01132947 0.01057334 0.00904852 0.01175377
- 0.01079706 0.01209295 0.01080718 0.01009937 0.01057589 0.01207567
- 0.01190179]</t>
-  </si>
-  <si>
-    <t>[0.00718681 0.07731944 0.008402   0.17058062 0.00664755 0.00746264
- 0.01125892 0.00901645 0.00953298 0.00985644 0.00910692 0.00895556
- 0.01122999 0.05845673 0.00991614 0.00909739 0.00786829 0.01033391
- 0.00929459 0.01044127 0.00925489 0.00874034 0.00911578 0.01041873
- 0.0101626 ]</t>
-  </si>
-  <si>
-    <t>[0.00681645 0.10465802 0.00800734 0.64170723 0.00631778 0.00701868
- 0.01044096 0.00838814 0.00901743 0.00947813 0.00856739 0.00856414
- 0.01044433 0.05479992 0.00915795 0.00873435 0.00741197 0.00949658
- 0.00887735 0.00992828 0.00873008 0.00828083 0.00854318 0.00995506
- 0.00969695]</t>
-  </si>
-  <si>
-    <t>[1.59052927e-308 2.12583624e-307 1.87789492e-308 1.00000000e+000
- 1.47768019e-308 1.64372593e-308 2.45005907e-308 1.97050064e-308
- 2.11427686e-308 2.20047165e-308 2.00634750e-308 2.00272495e-308
- 2.45596562e-308 1.30087540e-307 2.15237696e-308 2.03053393e-308
- 1.73356687e-308 2.23274785e-308 2.06805166e-308 2.31291665e-308
- 2.04939764e-308 1.93345004e-308 2.00718846e-308 2.31485076e-308
- 2.26454658e-308]</t>
-  </si>
-  <si>
-    <t>[0.00917442 0.08432847 0.01119069 0.22790331 0.00863347 0.00961311
- 0.01457813 0.01167549 0.0126356  0.01276706 0.01186814 0.01190408
- 0.01475938 0.08164752 0.01276297 0.01181143 0.01010395 0.0132263
- 0.01209664 0.01354952 0.01224244 0.01130425 0.0119419  0.01348201
- 0.01345512]</t>
-  </si>
-  <si>
-    <t>[1.59980900e-308 2.62347049e-307 1.87415455e-308 1.00000000e+000
- 1.48156256e-308 1.64923543e-308 2.46028603e-308 1.97418018e-308
- 2.11287356e-308 2.21624556e-308 2.01147016e-308 2.00199267e-308
- 2.45966039e-308 1.36230855e-307 2.15805426e-308 2.04302843e-308
- 1.74185393e-308 2.23960737e-308 2.07994468e-308 2.32824781e-308
- 2.04871513e-308 1.94377488e-308 2.00971700e-308 2.33166421e-308
- 2.26993571e-308]</t>
+    <t xml:space="preserve">fix: Hofixes for the localunit
+## Summary
+Small hotfixes for the locaunit
+## Addresses
+- Issue(s): No issues was Created
+## Depends On
+- https://github.com/IFRCGo/go-api/pull/2385
+## Changes
+- Add new logic for the isNewLocalUnit
+- Remove pristine from LocalUnitValidationButton
+- Add missing form fields in localunit view component
+- Add global validator permission
+- Add check of the changes in localunitview component
+## This PR Ensures:
+- [x] No typos or grammatical errors
+- [x] No conflict markers left in the code
+- [x] No unwanted comments, temporary files, or auto-generated files
+- [x] No inclusion of secret keys or sensitive data
+- [x] No `console.log` statements meant for debugging
+- [x] All CI checks have passed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feat: Hotjar for heatmap detection
+## Summary
+Add Hotjar for heatmap detection
+## Addresses
+- Issue(s): No issues was created it is just for test.
+## Depends On
+- Other PRs or Dependencies: _List PRs or dependencies this PR relies on._
+## Changes
+- Add new dependencies hotjar
+## This PR Ensures:
+- [x] No typos or grammatical errors
+- [x] No conflict markers left in the code
+- [x] No unwanted comments, temporary files, or auto-generated files
+- [x] No inclusion of secret keys or sensitive data
+- [x] No `console.log` statements meant for debugging
+- [x] All CI checks have passed
+</t>
+  </si>
+  <si>
+    <t>project: DREF Imminent Changes
+## Addresses
+- https://github.com/IFRCGo/go-web-app/issues/1455
+## Depends On
+- 
+## Changes
+- 
+## This PR Ensures:
+- [x] No typos or grammatical errors
+- [x] No conflict markers left in the code
+- [x] No unwanted comments, temporary files, or auto-generated files
+- [x] No inclusion of secret keys or sensitive data
+- [x] No `console.log` statements meant for debugging
+- [x] All CI checks have passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dref Imminent feedback changes
+## Summary
+Add new feedback changes in dref application form and export when dref type is imminent
+## Addresses
+* Issue(s): #1455 
+## Depends On
+Branch: feature/dref-imminent
+## Changes
+* Hide and uhide fields in event details section
+* Changes and update name in the fields
+* Add activity input in proposed action
+* 
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[x] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add redirection for about to resource page
+## Summary
+## Addresses
+*   https://github.com/IFRCGo/go-web-app/issues/1687
+## Depends On
+## Changes
+* Add redirection for about to resource page
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[x] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add position field on the edit user profile modal
+## Summary
+Provide a brief description of what this PR addresses and its purpose.
+## Addresses
+*  https://github.com/IFRCGo/go-web-app/issues/1647
+## Depends On
+## Changes
+* Add position field on the edit user profile modal
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[x] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed
+## Additional Notes
+*Optional: Add any other relevant context, screenshots, or details here.*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Surge Deployment Key Figures &amp; Ongoing Rapid Response Deployments Table
+## Summary
+Work on Active surge deployments tab and change in table component
+## Addresses
+- #1719
+- #1725 
+- #1723
+## Depends On
+- https://github.com/IFRCGo/go-api/pull/2447
+- https://github.com/IFRCGo/go-api/pull/2449
+## Changes
+* Add key figure
+* Add tables
+* Move chart
+* Move Map
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[ ] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check translation migrations for PRs targeting develop and on push to develop
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[x] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed
+</t>
+  </si>
+  <si>
+    <t>Upgrade pnpm to v10.6.1
+## Addresses 
+- https://github.com/IFRCGo/go-web-app/issues/1747
+## Changes
+* Upgrade pnpm to v10.6.1
+* Cleanup Dockerfile
+* Configure depandabot to track other dependencies updates
+* Upgrade eslint
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[x] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update strings
+## Summary
+Provide a brief description of what this PR addresses and its purpose.
+## Addresses
+* Issue(s): *List related issues or tickets.*
+## Depends On
+* Other PRs or Dependencies: *List PRs or dependencies this PR relies on.*
+## Changes
+* Detailed list or prose of changes
+* Breaking changes
+* Changes to configurations
+## This PR Ensures:
+* \[ ] No typos or grammatical errors
+* \[ ] No conflict markers left in the code
+* \[ ] No unwanted comments, temporary files, or auto-generated files
+* \[ ] No inclusion of secret keys or sensitive data
+* \[ ] No `console.log` statements meant for debugging
+* \[ ] All CI checks have passed
+## Additional Notes
+*Optional: Add any other relevant context, screenshots, or details here.*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERU deployments table
+## Summary
+Add an ongoing ERU deployment table in both tabs and remove the unused file.
+## Addresses
+- #1725 
+- #1732 
+## Depends On
+- https://github.com/IFRCGo/go-api/pull/2449
+## Changes
+- Add Table
+- Remove Personnel by event table
+## This PR Ensures:
+* \[x] No typos or grammatical errors
+* \[x] No conflict markers left in the code
+* \[x] No unwanted comments, temporary files, or auto-generated files
+* \[x] No inclusion of secret keys or sensitive data
+* \[x] No `console.log` statements meant for debugging
+* \[x] All CI checks have passed
+## Additional Notes
+*Optional: Add any other relevant context, screenshots, or details here.*
+</t>
+  </si>
+  <si>
+    <t>ERU readiness form
+## Summary Add Eru form ## Addresses - #1714 ## Depends On - https://github.com/IFRCGo/go-api/pull/2448 ## Changes * Add schema ## This PR Ensures: * \[ ] No typos or grammatical errors * \[ ] No conflict markers left in the code * \[ ] No unwanted comments, temporary files, or auto-generated files * \[ ] No inclusion of secret keys or sensitive data * \[ ] No `console.log` statements meant for debugging * \[ ] All CI checks have passed ## Additional Notes *Optional: Add any other relevant context, screenshots, or details here.*</t>
   </si>
 </sst>
 </file>
@@ -477,164 +597,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>30</v>
-      </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>31</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>39</v>
-      </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>40</v>
-      </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>41</v>
-      </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>68</v>
-      </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>69</v>
-      </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>106</v>
-      </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>112</v>
-      </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>114</v>
-      </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>118</v>
-      </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>135</v>
-      </c>
       <c r="B13">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>181</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
